--- a/me/1.Mot-so-dieu-can-biet-ve-Javascript/11.Explicit-Binding-bind-call-va-apply.xlsx
+++ b/me/1.Mot-so-dieu-can-biet-ve-Javascript/11.Explicit-Binding-bind-call-va-apply.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/javascript_advance/me/1.Mot-so-dieu-can-biet-ve-Javascript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07725C0-7764-B84F-9C57-1DBD09DB388E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7097A18-A7B6-6343-8041-266EE3C0BA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{CF2ADB45-77FC-AD43-8530-73FDDC826E44}"/>
+    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{CF2ADB45-77FC-AD43-8530-73FDDC826E44}"/>
   </bookViews>
   <sheets>
     <sheet name="Bind" sheetId="1" r:id="rId1"/>
+    <sheet name="Call và apply" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="95">
   <si>
     <t>構成</t>
   </si>
@@ -304,6 +305,180 @@
       <t>có method là bind()</t>
     </r>
   </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>/**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Function.bind(obj)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * - Nhận vào một object bất kỳ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * - Return về một Function mới luôn có this = obj</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> */</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Function.call, Function.apply</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * - Nhận vào một object bất kỳ trong tham số đầu tiên</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * - Function này sẽ được gọi ngay lập tức</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * - Return về kết quả của lời gọi hàm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  sum: function (x, y) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    console.log(x, y);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    console.log('sum', this);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    console.log('----------------');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return x + y;</t>
+  </si>
+  <si>
+    <t>var func = john.sum.bind({inputObj: 'vn1'});</t>
+  </si>
+  <si>
+    <t>func(10, 20);</t>
+  </si>
+  <si>
+    <t>const value1 = john.sum(10, 20);</t>
+  </si>
+  <si>
+    <t>const value2 = john.sum.bind({ inputObj: 'vn2' })(10, 50);</t>
+  </si>
+  <si>
+    <t>const value3 = john.sum.call({ inputObj: 'vn3' }, 10, 30);</t>
+  </si>
+  <si>
+    <t>const value4 = john.sum.apply({ inputObj: 'vn4' }, [10, 40]);</t>
+  </si>
+  <si>
+    <t>console.log('value1', value1); // 30</t>
+  </si>
+  <si>
+    <t>console.log('value2', value2); // 60</t>
+  </si>
+  <si>
+    <t>console.log('value3', value3); // 40</t>
+  </si>
+  <si>
+    <t>console.log('value4', value4); // 50</t>
+  </si>
+  <si>
+    <t>.call(this, arg1, arg2,...)</t>
+  </si>
+  <si>
+    <t>.apply(this, [arg1, arg2,...])</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・Dàng buộc tường minh bằng cách sử dụng hàm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>call() và apply()</t>
+    </r>
+  </si>
+  <si>
+    <t>・call() và apply() đều là method của function và nhận vào nhiều tham số</t>
+  </si>
+  <si>
+    <t>・Return về kết quả của lời gọi hàm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gọi theo kiểu dàng buộc ngầm bằng cách dùng dot notation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・Function này sẽ được </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>gọi ngay lập tức</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Khi truyền tham số thì các argument nằm trong cùng 1 array</t>
+  </si>
+  <si>
+    <t>10 20</t>
+  </si>
+  <si>
+    <t>(x, y)</t>
+  </si>
+  <si>
+    <t>Object john</t>
+  </si>
+  <si>
+    <t>10 50</t>
+  </si>
+  <si>
+    <t>{inputObj: "vn1"}</t>
+  </si>
+  <si>
+    <t>{inputObj: "vn2"}</t>
+  </si>
+  <si>
+    <t>10 30</t>
+  </si>
+  <si>
+    <t>{inputObj: "vn3"}</t>
+  </si>
+  <si>
+    <t>10 40</t>
+  </si>
+  <si>
+    <t>{inputObj: "vn4"}</t>
+  </si>
+  <si>
+    <t>value1</t>
+  </si>
+  <si>
+    <t>value2</t>
+  </si>
+  <si>
+    <t>value3</t>
+  </si>
+  <si>
+    <t>value4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・Nhận vào một object bất kỳ trong tham số đầu tiên đóng vai trò là </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>this</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -349,7 +524,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -437,11 +612,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -452,7 +664,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -465,7 +681,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -481,8 +697,39 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,6 +879,161 @@
         <a:xfrm>
           <a:off x="990600" y="15201900"/>
           <a:ext cx="965200" cy="3517900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2985AF29-FE46-BEB9-CAEE-8239E08F079A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1930400" y="11988800"/>
+          <a:ext cx="1981200" cy="2120900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>47286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8B7E403-9669-AEF3-365E-4825C1DD53D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="977900" y="17830800"/>
+          <a:ext cx="15278100" cy="5381286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA20DDFA-6911-6E28-0CBC-3785C1C139B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="965200" y="12369800"/>
+          <a:ext cx="1206500" cy="3987800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -959,8 +1361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B27552E-B942-8A41-BB37-BD224E446CD2}">
   <dimension ref="A3:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="K75" sqref="K75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -980,11 +1382,6 @@
       <c r="B4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
       <c r="H4" s="5"/>
       <c r="I4" t="s">
         <v>17</v>
@@ -1006,25 +1403,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
       <c r="J6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1184,21 +1565,21 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="4"/>
-      <c r="E31" s="10" t="s">
+      <c r="E31" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="4"/>
-      <c r="E32" s="10" t="s">
+      <c r="E32" t="s">
         <v>19</v>
       </c>
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B33" s="4"/>
-      <c r="E33" s="10" t="s">
+      <c r="E33" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="5"/>
@@ -1251,159 +1632,159 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="15"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="14"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="18"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="14"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="18"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="14"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="18"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="14"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="18"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="14"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="18"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="14"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="18"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="14"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="18"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="14"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="18"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="14"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="18"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="14"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="18"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="14"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="18"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B53" s="14"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="18"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="14"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="18"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B55" s="14"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="18"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="14"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="18"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="21"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
@@ -1422,62 +1803,46 @@
       <c r="B62" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
       <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
       <c r="E63" s="5"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
       <c r="E64" s="5"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B65" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
       <c r="E65" s="5"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B66" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
       <c r="E66" s="5"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B67" s="4"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
       <c r="E67" s="5"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B68" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
       <c r="E68" s="5"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
       <c r="E69" s="5"/>
       <c r="F69" t="s">
         <v>17</v>
@@ -1487,11 +1852,9 @@
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B70" s="22" t="s">
+      <c r="B70" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
       <c r="E70" s="5"/>
       <c r="F70" t="s">
         <v>17</v>
@@ -1512,7 +1875,7 @@
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B75" s="21" t="s">
+      <c r="B75" s="10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1533,7 +1896,6 @@
       <c r="B77" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C77" s="20"/>
       <c r="D77" s="5"/>
       <c r="E77" t="s">
         <v>17</v>
@@ -1546,7 +1908,6 @@
       <c r="B78" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C78" s="20"/>
       <c r="D78" s="5"/>
       <c r="E78" t="s">
         <v>17</v>
@@ -1567,4 +1928,632 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A22BD49-39E8-7D40-B404-38C304EF7041}">
+  <dimension ref="A3:K86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="O85" sqref="O85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="4"/>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="4"/>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="4"/>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="4"/>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="4"/>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="4"/>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="4"/>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="4"/>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="4"/>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="4"/>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="4"/>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="4"/>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="4"/>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="4"/>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="4"/>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="4"/>
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="4"/>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="4"/>
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B38" s="4"/>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="4"/>
+      <c r="E39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B40" s="4"/>
+      <c r="E40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B49" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B50" s="4"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B52" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B53" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B54" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B55" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B56" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B57" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B58" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B59" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B60" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B61" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B62" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B63" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B64" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B65" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B66" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B67" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B68" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G68" s="5"/>
+      <c r="H68" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B69" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B70" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B71" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G71" s="5"/>
+      <c r="H71" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B72" s="4"/>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B73" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B74" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B75" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B76" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B77" s="7"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B80" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G80" s="3"/>
+      <c r="H80" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I80" s="3"/>
+      <c r="J80" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K80" s="3"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B81" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G81" s="5"/>
+      <c r="H81" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I81" s="5"/>
+      <c r="J81" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="K81" s="5"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B82" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="29">
+        <v>30</v>
+      </c>
+      <c r="F82" s="32"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="33"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="5"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B83" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C83" s="4"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="12">
+        <v>60</v>
+      </c>
+      <c r="G83" s="33"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="33"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="5"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B84" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="4"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="12">
+        <v>40</v>
+      </c>
+      <c r="I84" s="33"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="5"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B85" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C85" s="4"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="33"/>
+      <c r="J85" s="23">
+        <v>50</v>
+      </c>
+      <c r="K85" s="5"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B86" s="28"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/1.Mot-so-dieu-can-biet-ve-Javascript/11.Explicit-Binding-bind-call-va-apply.xlsx
+++ b/me/1.Mot-so-dieu-can-biet-ve-Javascript/11.Explicit-Binding-bind-call-va-apply.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/javascript_advance/me/1.Mot-so-dieu-can-biet-ve-Javascript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7097A18-A7B6-6343-8041-266EE3C0BA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFBCE6E-67FD-8840-8B0D-9904DBD9ECFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{CF2ADB45-77FC-AD43-8530-73FDDC826E44}"/>
+    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{CF2ADB45-77FC-AD43-8530-73FDDC826E44}"/>
   </bookViews>
   <sheets>
     <sheet name="Bind" sheetId="1" r:id="rId1"/>
@@ -102,24 +102,6 @@
   </si>
   <si>
     <t>javascript_advance/01_js_to_know/07_Explicit-Binding-bind-call-va-apply/index.html</t>
-  </si>
-  <si>
-    <t>&lt;!DOCTYPE html&gt;
-&lt;html lang="en"&gt;
-&lt;head&gt;
-  &lt;meta charset="UTF-8"&gt;
-  &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
-  &lt;meta name="viewport" content="width=device-width, initial-scale=1.0"&gt;
-  &lt;title&gt;Từ khóa this&lt;/title&gt;
-&lt;/head&gt;
-&lt;body&gt;
-  &lt;h1&gt;Từ khóa "this" trong Javascript&lt;/h1&gt;
-  &lt;button id="test-this"&gt;Click Me!!!!&lt;/button&gt;
-&lt;/body&gt;
-  &lt;!-- &lt;script src="main.js"&gt;&lt;/script&gt; --&gt;
-  &lt;!-- &lt;script src="arrow-this.js"&gt;&lt;/script&gt; --&gt;
-  &lt;script src="main.js"&gt;&lt;/script&gt;
-&lt;/html&gt;</t>
   </si>
   <si>
     <t>javascript_advance/01_js_to_know/07_Explicit-Binding-bind-call-va-apply/main.js</t>
@@ -478,6 +460,23 @@
       </rPr>
       <t>this</t>
     </r>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;
+&lt;html lang="en"&gt;
+&lt;head&gt;
+  &lt;meta charset="UTF-8"&gt;
+  &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
+  &lt;meta name="viewport" content="width=device-width, initial-scale=1.0"&gt;
+  &lt;title&gt;Từ khóa this&lt;/title&gt;
+&lt;/head&gt;
+&lt;body&gt;
+  &lt;h1&gt;Từ khóa "this" trong Javascript&lt;/h1&gt;
+  &lt;button id="test-this"&gt;Click Me!!!!&lt;/button&gt;
+&lt;/body&gt;
+  &lt;script src="main.js"&gt;&lt;/script&gt;
+  &lt;!-- &lt;script src="arrow-this.js"&gt;&lt;/script&gt; --&gt;
+&lt;/html&gt;</t>
   </si>
 </sst>
 </file>
@@ -653,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -669,38 +668,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -729,6 +700,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1361,15 +1359,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B27552E-B942-8A41-BB37-BD224E446CD2}">
   <dimension ref="A3:J79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1380,14 +1378,14 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" t="s">
         <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1399,12 +1397,12 @@
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1632,168 +1630,168 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="15"/>
+      <c r="B41" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="18"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="31"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="18"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="31"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="16"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="18"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="31"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="16"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="18"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="31"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="16"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="18"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="31"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="16"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="18"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="31"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="18"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="31"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="16"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="18"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="31"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="16"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="18"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="31"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="16"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="18"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="31"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="16"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="18"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="31"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B53" s="16"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="18"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="31"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="16"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="18"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="31"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="18"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="31"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="16"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="18"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="31"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="19"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="21"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="34"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -1801,31 +1799,31 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E63" s="5"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E64" s="5"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B65" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E65" s="5"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B66" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E66" s="5"/>
     </row>
@@ -1835,32 +1833,32 @@
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B68" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E68" s="5"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B69" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" t="s">
         <v>17</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B70" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" t="s">
         <v>17</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.2">
@@ -1871,17 +1869,17 @@
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B75" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
@@ -1889,31 +1887,31 @@
         <v>17</v>
       </c>
       <c r="F76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B77" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" t="s">
         <v>17</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B78" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" t="s">
         <v>17</v>
       </c>
       <c r="F78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.2">
@@ -1934,7 +1932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A22BD49-39E8-7D40-B404-38C304EF7041}">
   <dimension ref="A3:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="O85" sqref="O85"/>
     </sheetView>
   </sheetViews>
@@ -1942,7 +1940,7 @@
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1954,38 +1952,38 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H9" s="5"/>
     </row>
@@ -2200,7 +2198,7 @@
         <v>17</v>
       </c>
       <c r="I40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -2213,12 +2211,12 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2228,25 +2226,25 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G46" s="5"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G47" s="5"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G48" s="5"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G49" s="5"/>
     </row>
@@ -2256,140 +2254,140 @@
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G51" s="5"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G52" s="5"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G53" s="5"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G54" s="5"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G55" s="5"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G56" s="5"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G57" s="5"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G58" s="5"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G59" s="5"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G60" s="5"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G61" s="5"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G62" s="5"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G63" s="5"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G64" s="5"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G67" s="5"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" t="s">
         <v>17</v>
       </c>
       <c r="I68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G69" s="5"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G70" s="5"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" t="s">
         <v>17</v>
       </c>
       <c r="I71" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
@@ -2398,25 +2396,25 @@
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G73" s="5"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G74" s="5"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G75" s="5"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G76" s="5"/>
     </row>
@@ -2429,127 +2427,127 @@
       <c r="G77" s="9"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B80" s="26" t="s">
-        <v>81</v>
+      <c r="B80" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D80" s="3"/>
-      <c r="E80" s="26" t="s">
-        <v>80</v>
+      <c r="E80" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I80" s="3"/>
       <c r="J80" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K80" s="3"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B81" s="27" t="s">
-        <v>39</v>
+      <c r="B81" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="C81" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F81" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="D81" s="5"/>
-      <c r="E81" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I81" s="5"/>
-      <c r="J81" s="22" t="s">
+      <c r="J81" t="s">
+        <v>88</v>
+      </c>
+      <c r="K81" s="5"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B82" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="K81" s="5"/>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B82" s="27" t="s">
-        <v>90</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="5"/>
-      <c r="E82" s="29">
+      <c r="E82" s="19">
         <v>30</v>
       </c>
-      <c r="F82" s="32"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="33"/>
-      <c r="J82" s="24"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="14"/>
       <c r="K82" s="5"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B83" s="27" t="s">
-        <v>91</v>
+      <c r="B83" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="5"/>
-      <c r="E83" s="30"/>
+      <c r="E83" s="20"/>
       <c r="F83" s="12">
         <v>60</v>
       </c>
-      <c r="G83" s="33"/>
-      <c r="H83" s="32"/>
-      <c r="I83" s="33"/>
-      <c r="J83" s="24"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="14"/>
       <c r="K83" s="5"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B84" s="27" t="s">
-        <v>92</v>
+      <c r="B84" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="5"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="32"/>
-      <c r="G84" s="33"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="23"/>
       <c r="H84" s="12">
         <v>40</v>
       </c>
-      <c r="I84" s="33"/>
-      <c r="J84" s="24"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="14"/>
       <c r="K84" s="5"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B85" s="27" t="s">
-        <v>93</v>
+      <c r="B85" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="5"/>
-      <c r="E85" s="30"/>
-      <c r="F85" s="32"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="32"/>
-      <c r="I85" s="33"/>
-      <c r="J85" s="23">
+      <c r="E85" s="20"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="13">
         <v>50</v>
       </c>
       <c r="K85" s="5"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B86" s="28"/>
+      <c r="B86" s="18"/>
       <c r="C86" s="7"/>
       <c r="D86" s="9"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="25"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="15"/>
       <c r="K86" s="9"/>
     </row>
   </sheetData>
